--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05931433333333332</v>
+        <v>0.8498726666666666</v>
       </c>
       <c r="H2">
-        <v>0.177943</v>
+        <v>2.549618</v>
       </c>
       <c r="I2">
-        <v>0.0003168644771051667</v>
+        <v>0.005919419157891884</v>
       </c>
       <c r="J2">
-        <v>0.0003173430197568718</v>
+        <v>0.005931750228091937</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.37432</v>
+        <v>13.00733333333333</v>
       </c>
       <c r="N2">
-        <v>40.12296000000001</v>
+        <v>39.022</v>
       </c>
       <c r="O2">
-        <v>0.1019828318366699</v>
+        <v>0.1070948256796854</v>
       </c>
       <c r="P2">
-        <v>0.1077302617359031</v>
+        <v>0.1106092800596386</v>
       </c>
       <c r="Q2">
-        <v>0.7932888745866666</v>
+        <v>11.05457706622222</v>
       </c>
       <c r="R2">
-        <v>7.13959987128</v>
+        <v>99.49119359599999</v>
       </c>
       <c r="S2">
-        <v>3.231473668363055E-05</v>
+        <v>0.0006339391628394212</v>
       </c>
       <c r="T2">
-        <v>3.418744657846967E-05</v>
+        <v>0.0006561066222228464</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05931433333333332</v>
+        <v>0.8498726666666666</v>
       </c>
       <c r="H3">
-        <v>0.177943</v>
+        <v>2.549618</v>
       </c>
       <c r="I3">
-        <v>0.0003168644771051667</v>
+        <v>0.005919419157891884</v>
       </c>
       <c r="J3">
-        <v>0.0003173430197568718</v>
+        <v>0.005931750228091937</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>288.71896</v>
       </c>
       <c r="O3">
-        <v>0.7338535627914345</v>
+        <v>0.7923813923330444</v>
       </c>
       <c r="P3">
-        <v>0.7752112289052886</v>
+        <v>0.8183844063648099</v>
       </c>
       <c r="Q3">
-        <v>5.708390877697778</v>
+        <v>81.79145081747556</v>
       </c>
       <c r="R3">
-        <v>51.37551789928</v>
+        <v>736.12305735728</v>
       </c>
       <c r="S3">
-        <v>0.0002325321254456715</v>
+        <v>0.004690437594133268</v>
       </c>
       <c r="T3">
-        <v>0.0002460078723302399</v>
+        <v>0.004854451889121346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05931433333333332</v>
+        <v>0.8498726666666666</v>
       </c>
       <c r="H4">
-        <v>0.177943</v>
+        <v>2.549618</v>
       </c>
       <c r="I4">
-        <v>0.0003168644771051667</v>
+        <v>0.005919419157891884</v>
       </c>
       <c r="J4">
-        <v>0.0003173430197568718</v>
+        <v>0.005931750228091937</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1994553333333333</v>
+        <v>0.298136</v>
       </c>
       <c r="N4">
-        <v>0.598366</v>
+        <v>0.8944080000000001</v>
       </c>
       <c r="O4">
-        <v>0.001520901228493132</v>
+        <v>0.002454678613257035</v>
       </c>
       <c r="P4">
-        <v>0.001606614412143705</v>
+        <v>0.002535232047552183</v>
       </c>
       <c r="Q4">
-        <v>0.01183056012644444</v>
+        <v>0.2533776373493333</v>
       </c>
       <c r="R4">
-        <v>0.106475041138</v>
+        <v>2.280398736144</v>
       </c>
       <c r="S4">
-        <v>4.819195724950819E-07</v>
+        <v>1.453027160978118E-05</v>
       </c>
       <c r="T4">
-        <v>5.098478691345947E-07</v>
+        <v>1.503836327633365E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05931433333333332</v>
+        <v>0.8498726666666666</v>
       </c>
       <c r="H5">
-        <v>0.177943</v>
+        <v>2.549618</v>
       </c>
       <c r="I5">
-        <v>0.0003168644771051667</v>
+        <v>0.005919419157891884</v>
       </c>
       <c r="J5">
-        <v>0.0003173430197568718</v>
+        <v>0.005931750228091937</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.989489</v>
+        <v>11.5773025</v>
       </c>
       <c r="N5">
-        <v>41.978978</v>
+        <v>23.154605</v>
       </c>
       <c r="O5">
-        <v>0.1600505690775031</v>
+        <v>0.0953207826158438</v>
       </c>
       <c r="P5">
-        <v>0.1127136753456305</v>
+        <v>0.06563257109105912</v>
       </c>
       <c r="Q5">
-        <v>1.244977547042333</v>
+        <v>9.839232948481666</v>
       </c>
       <c r="R5">
-        <v>7.469865282253998</v>
+        <v>59.03539769088999</v>
       </c>
       <c r="S5">
-        <v>5.07143398811274E-05</v>
+        <v>0.0005642436667614735</v>
       </c>
       <c r="T5">
-        <v>3.576889810207804E-05</v>
+        <v>0.0003893160185396502</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05931433333333332</v>
+        <v>0.8498726666666666</v>
       </c>
       <c r="H6">
-        <v>0.177943</v>
+        <v>2.549618</v>
       </c>
       <c r="I6">
-        <v>0.0003168644771051667</v>
+        <v>0.005919419157891884</v>
       </c>
       <c r="J6">
-        <v>0.0003173430197568718</v>
+        <v>0.005931750228091937</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.33994</v>
+        <v>0.3338006666666667</v>
       </c>
       <c r="N6">
-        <v>1.01982</v>
+        <v>1.001402</v>
       </c>
       <c r="O6">
-        <v>0.002592135065899242</v>
+        <v>0.00274832075816945</v>
       </c>
       <c r="P6">
-        <v>0.002738219601034138</v>
+        <v>0.002838510436940246</v>
       </c>
       <c r="Q6">
-        <v>0.02016331447333333</v>
+        <v>0.2836880627151111</v>
       </c>
       <c r="R6">
-        <v>0.18146983026</v>
+        <v>2.553192564436</v>
       </c>
       <c r="S6">
-        <v>8.213555222421302E-07</v>
+        <v>1.626846254794019E-05</v>
       </c>
       <c r="T6">
-        <v>8.6895487694963E-07</v>
+        <v>1.683733493176164E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.4718103333333334</v>
+        <v>0.4718103333333333</v>
       </c>
       <c r="H7">
         <v>1.415431</v>
       </c>
       <c r="I7">
-        <v>0.002520468934959191</v>
+        <v>0.00328619007948409</v>
       </c>
       <c r="J7">
-        <v>0.002524275457857229</v>
+        <v>0.003293035724213744</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.37432</v>
+        <v>13.00733333333333</v>
       </c>
       <c r="N7">
-        <v>40.12296000000001</v>
+        <v>39.022</v>
       </c>
       <c r="O7">
-        <v>0.1019828318366699</v>
+        <v>0.1070948256796854</v>
       </c>
       <c r="P7">
-        <v>0.1077302617359031</v>
+        <v>0.1106092800596386</v>
       </c>
       <c r="Q7">
-        <v>6.310142377306668</v>
+        <v>6.136994275777777</v>
       </c>
       <c r="R7">
-        <v>56.79128139576002</v>
+        <v>55.23294848199999</v>
       </c>
       <c r="S7">
-        <v>0.0002570445595434936</v>
+        <v>0.00035193395371266</v>
       </c>
       <c r="T7">
-        <v>0.0002719408557684759</v>
+        <v>0.000364240310665953</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.4718103333333334</v>
+        <v>0.4718103333333333</v>
       </c>
       <c r="H8">
         <v>1.415431</v>
       </c>
       <c r="I8">
-        <v>0.002520468934959191</v>
+        <v>0.00328619007948409</v>
       </c>
       <c r="J8">
-        <v>0.002524275457857229</v>
+        <v>0.003293035724213744</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>288.71896</v>
       </c>
       <c r="O8">
-        <v>0.7338535627914345</v>
+        <v>0.7923813923330444</v>
       </c>
       <c r="P8">
-        <v>0.7752112289052886</v>
+        <v>0.8183844063648099</v>
       </c>
       <c r="Q8">
-        <v>45.40686291908446</v>
+        <v>45.40686291908445</v>
       </c>
       <c r="R8">
-        <v>408.6617662717601</v>
+        <v>408.66176627176</v>
       </c>
       <c r="S8">
-        <v>0.001849655107824935</v>
+        <v>0.002603915870652641</v>
       </c>
       <c r="T8">
-        <v>0.001956846679780962</v>
+        <v>0.002694969086298777</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.4718103333333334</v>
+        <v>0.4718103333333333</v>
       </c>
       <c r="H9">
         <v>1.415431</v>
       </c>
       <c r="I9">
-        <v>0.002520468934959191</v>
+        <v>0.00328619007948409</v>
       </c>
       <c r="J9">
-        <v>0.002524275457857229</v>
+        <v>0.003293035724213744</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1994553333333333</v>
+        <v>0.298136</v>
       </c>
       <c r="N9">
-        <v>0.598366</v>
+        <v>0.8944080000000001</v>
       </c>
       <c r="O9">
-        <v>0.001520901228493132</v>
+        <v>0.002454678613257035</v>
       </c>
       <c r="P9">
-        <v>0.001606614412143705</v>
+        <v>0.002535232047552183</v>
       </c>
       <c r="Q9">
-        <v>0.09410508730511112</v>
+        <v>0.1406636455386666</v>
       </c>
       <c r="R9">
-        <v>0.846945785746</v>
+        <v>1.265972809848</v>
       </c>
       <c r="S9">
-        <v>3.83338429955821E-06</v>
+        <v>8.066540507207033E-06</v>
       </c>
       <c r="T9">
-        <v>4.055537330814073E-06</v>
+        <v>8.348609701760898E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.4718103333333334</v>
+        <v>0.4718103333333333</v>
       </c>
       <c r="H10">
         <v>1.415431</v>
       </c>
       <c r="I10">
-        <v>0.002520468934959191</v>
+        <v>0.00328619007948409</v>
       </c>
       <c r="J10">
-        <v>0.002524275457857229</v>
+        <v>0.003293035724213744</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.989489</v>
+        <v>11.5773025</v>
       </c>
       <c r="N10">
-        <v>41.978978</v>
+        <v>23.154605</v>
       </c>
       <c r="O10">
-        <v>0.1600505690775031</v>
+        <v>0.0953207826158438</v>
       </c>
       <c r="P10">
-        <v>0.1127136753456305</v>
+        <v>0.06563257109105912</v>
       </c>
       <c r="Q10">
-        <v>9.903057801586334</v>
+        <v>5.462290951625833</v>
       </c>
       <c r="R10">
-        <v>59.418346809518</v>
+        <v>32.773745709755</v>
       </c>
       <c r="S10">
-        <v>0.0004034024873823869</v>
+        <v>0.0003132422102008454</v>
       </c>
       <c r="T10">
-        <v>0.0002845203644398624</v>
+        <v>0.0002161304012748559</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4718103333333334</v>
+        <v>0.4718103333333333</v>
       </c>
       <c r="H11">
         <v>1.415431</v>
       </c>
       <c r="I11">
-        <v>0.002520468934959191</v>
+        <v>0.00328619007948409</v>
       </c>
       <c r="J11">
-        <v>0.002524275457857229</v>
+        <v>0.003293035724213744</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.33994</v>
+        <v>0.3338006666666667</v>
       </c>
       <c r="N11">
-        <v>1.01982</v>
+        <v>1.001402</v>
       </c>
       <c r="O11">
-        <v>0.002592135065899242</v>
+        <v>0.00274832075816945</v>
       </c>
       <c r="P11">
-        <v>0.002738219601034138</v>
+        <v>0.002838510436940246</v>
       </c>
       <c r="Q11">
-        <v>0.1603872047133333</v>
+        <v>0.1574906038068889</v>
       </c>
       <c r="R11">
-        <v>1.44348484242</v>
+        <v>1.417415434262</v>
       </c>
       <c r="S11">
-        <v>6.533395908817436E-06</v>
+        <v>9.03150441073664E-06</v>
       </c>
       <c r="T11">
-        <v>6.912020537114087E-06</v>
+        <v>9.347316272397793E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>73.34487800000001</v>
+        <v>81.09680433333334</v>
       </c>
       <c r="H12">
-        <v>220.034634</v>
+        <v>243.290413</v>
       </c>
       <c r="I12">
-        <v>0.3918173754934826</v>
+        <v>0.5648445891281082</v>
       </c>
       <c r="J12">
-        <v>0.3924091153046654</v>
+        <v>0.5660212482047631</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.37432</v>
+        <v>13.00733333333333</v>
       </c>
       <c r="N12">
-        <v>40.12296000000001</v>
+        <v>39.022</v>
       </c>
       <c r="O12">
-        <v>0.1019828318366699</v>
+        <v>0.1070948256796854</v>
       </c>
       <c r="P12">
-        <v>0.1077302617359031</v>
+        <v>0.1106092800596386</v>
       </c>
       <c r="Q12">
-        <v>980.9378687329603</v>
+        <v>1054.853166231778</v>
       </c>
       <c r="R12">
-        <v>8828.440818596642</v>
+        <v>9493.678496086</v>
       </c>
       <c r="S12">
-        <v>0.03995864551563717</v>
+        <v>0.06049193280878825</v>
       </c>
       <c r="T12">
-        <v>0.04227433669932579</v>
+        <v>0.06260720276238686</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>73.34487800000001</v>
+        <v>81.09680433333334</v>
       </c>
       <c r="H13">
-        <v>220.034634</v>
+        <v>243.290413</v>
       </c>
       <c r="I13">
-        <v>0.3918173754934826</v>
+        <v>0.5648445891281082</v>
       </c>
       <c r="J13">
-        <v>0.3924091153046654</v>
+        <v>0.5660212482047631</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>288.71896</v>
       </c>
       <c r="O13">
-        <v>0.7338535627914345</v>
+        <v>0.7923813923330444</v>
       </c>
       <c r="P13">
-        <v>0.7752112289052886</v>
+        <v>0.8183844063648099</v>
       </c>
       <c r="Q13">
-        <v>7058.685632495629</v>
+        <v>7804.728335481166</v>
       </c>
       <c r="R13">
-        <v>63528.17069246066</v>
+        <v>70242.5550193305</v>
       </c>
       <c r="S13">
-        <v>0.2875365769694815</v>
+        <v>0.4475723419851168</v>
       </c>
       <c r="T13">
-        <v>0.3041999525089668</v>
+        <v>0.4632229632019237</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>73.34487800000001</v>
+        <v>81.09680433333334</v>
       </c>
       <c r="H14">
-        <v>220.034634</v>
+        <v>243.290413</v>
       </c>
       <c r="I14">
-        <v>0.3918173754934826</v>
+        <v>0.5648445891281082</v>
       </c>
       <c r="J14">
-        <v>0.3924091153046654</v>
+        <v>0.5660212482047631</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1994553333333333</v>
+        <v>0.298136</v>
       </c>
       <c r="N14">
-        <v>0.598366</v>
+        <v>0.8944080000000001</v>
       </c>
       <c r="O14">
-        <v>0.001520901228493132</v>
+        <v>0.002454678613257035</v>
       </c>
       <c r="P14">
-        <v>0.001606614412143705</v>
+        <v>0.002535232047552183</v>
       </c>
       <c r="Q14">
-        <v>14.62902708978267</v>
+        <v>24.17787685672267</v>
       </c>
       <c r="R14">
-        <v>131.661243808044</v>
+        <v>217.600891710504</v>
       </c>
       <c r="S14">
-        <v>0.0005959155277329924</v>
+        <v>0.001386511932746725</v>
       </c>
       <c r="T14">
-        <v>0.0006304501401050363</v>
+        <v>0.001434995208044204</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>73.34487800000001</v>
+        <v>81.09680433333334</v>
       </c>
       <c r="H15">
-        <v>220.034634</v>
+        <v>243.290413</v>
       </c>
       <c r="I15">
-        <v>0.3918173754934826</v>
+        <v>0.5648445891281082</v>
       </c>
       <c r="J15">
-        <v>0.3924091153046654</v>
+        <v>0.5660212482047631</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.989489</v>
+        <v>11.5773025</v>
       </c>
       <c r="N15">
-        <v>41.978978</v>
+        <v>23.154605</v>
       </c>
       <c r="O15">
-        <v>0.1600505690775031</v>
+        <v>0.0953207826158438</v>
       </c>
       <c r="P15">
-        <v>0.1127136753456305</v>
+        <v>0.06563257109105912</v>
       </c>
       <c r="Q15">
-        <v>1539.471509987342</v>
+        <v>938.882235550311</v>
       </c>
       <c r="R15">
-        <v>9236.829059924052</v>
+        <v>5633.293413301865</v>
       </c>
       <c r="S15">
-        <v>0.06271059392218561</v>
+        <v>0.05384142829201601</v>
       </c>
       <c r="T15">
-        <v>0.04422987362511613</v>
+        <v>0.03714942981184913</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>73.34487800000001</v>
+        <v>81.09680433333334</v>
       </c>
       <c r="H16">
-        <v>220.034634</v>
+        <v>243.290413</v>
       </c>
       <c r="I16">
-        <v>0.3918173754934826</v>
+        <v>0.5648445891281082</v>
       </c>
       <c r="J16">
-        <v>0.3924091153046654</v>
+        <v>0.5660212482047631</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.33994</v>
+        <v>0.3338006666666667</v>
       </c>
       <c r="N16">
-        <v>1.01982</v>
+        <v>1.001402</v>
       </c>
       <c r="O16">
-        <v>0.002592135065899242</v>
+        <v>0.00274832075816945</v>
       </c>
       <c r="P16">
-        <v>0.002738219601034138</v>
+        <v>0.002838510436940246</v>
       </c>
       <c r="Q16">
-        <v>24.93285782732</v>
+        <v>27.07016735100289</v>
       </c>
       <c r="R16">
-        <v>224.39572044588</v>
+        <v>243.631506159026</v>
       </c>
       <c r="S16">
-        <v>0.001015643558445266</v>
+        <v>0.001552374109440474</v>
       </c>
       <c r="T16">
-        <v>0.0010745023311517</v>
+        <v>0.001606657220559165</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.8468355</v>
+        <v>0.8953935</v>
       </c>
       <c r="H17">
-        <v>1.693671</v>
+        <v>1.790787</v>
       </c>
       <c r="I17">
-        <v>0.004523899584163341</v>
+        <v>0.006236474763378514</v>
       </c>
       <c r="J17">
-        <v>0.003020487850686124</v>
+        <v>0.004166310873124553</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.37432</v>
+        <v>13.00733333333333</v>
       </c>
       <c r="N17">
-        <v>40.12296000000001</v>
+        <v>39.022</v>
       </c>
       <c r="O17">
-        <v>0.1019828318366699</v>
+        <v>0.1070948256796854</v>
       </c>
       <c r="P17">
-        <v>0.1077302617359031</v>
+        <v>0.1106092800596386</v>
       </c>
       <c r="Q17">
-        <v>11.32584896436</v>
+        <v>11.646681719</v>
       </c>
       <c r="R17">
-        <v>67.95509378616001</v>
+        <v>69.880090314</v>
       </c>
       <c r="S17">
-        <v>0.0004613600905377108</v>
+        <v>0.000667894177639779</v>
       </c>
       <c r="T17">
-        <v>0.0003253979467245315</v>
+        <v>0.0004608326461809512</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.8468355</v>
+        <v>0.8953935</v>
       </c>
       <c r="H18">
-        <v>1.693671</v>
+        <v>1.790787</v>
       </c>
       <c r="I18">
-        <v>0.004523899584163341</v>
+        <v>0.006236474763378514</v>
       </c>
       <c r="J18">
-        <v>0.003020487850686124</v>
+        <v>0.004166310873124553</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>288.71896</v>
       </c>
       <c r="O18">
-        <v>0.7338535627914345</v>
+        <v>0.7923813923330444</v>
       </c>
       <c r="P18">
-        <v>0.7752112289052886</v>
+        <v>0.8183844063648099</v>
       </c>
       <c r="Q18">
-        <v>81.49915495036001</v>
+        <v>86.17236003692001</v>
       </c>
       <c r="R18">
-        <v>488.9949297021601</v>
+        <v>517.0341602215201</v>
       </c>
       <c r="S18">
-        <v>0.003319879827548957</v>
+        <v>0.00494166655625576</v>
       </c>
       <c r="T18">
-        <v>0.002341516098623884</v>
+        <v>0.00340964385063329</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.8468355</v>
+        <v>0.8953935</v>
       </c>
       <c r="H19">
-        <v>1.693671</v>
+        <v>1.790787</v>
       </c>
       <c r="I19">
-        <v>0.004523899584163341</v>
+        <v>0.006236474763378514</v>
       </c>
       <c r="J19">
-        <v>0.003020487850686124</v>
+        <v>0.004166310873124553</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1994553333333333</v>
+        <v>0.298136</v>
       </c>
       <c r="N19">
-        <v>0.598366</v>
+        <v>0.8944080000000001</v>
       </c>
       <c r="O19">
-        <v>0.001520901228493132</v>
+        <v>0.002454678613257035</v>
       </c>
       <c r="P19">
-        <v>0.001606614412143705</v>
+        <v>0.002535232047552183</v>
       </c>
       <c r="Q19">
-        <v>0.168905856931</v>
+        <v>0.266949036516</v>
       </c>
       <c r="R19">
-        <v>1.013435141586</v>
+        <v>1.601694219096</v>
       </c>
       <c r="S19">
-        <v>6.880404435133594E-06</v>
+        <v>1.530854122378247E-05</v>
       </c>
       <c r="T19">
-        <v>4.852759312617289E-06</v>
+        <v>1.056256484561049E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.8468355</v>
+        <v>0.8953935</v>
       </c>
       <c r="H20">
-        <v>1.693671</v>
+        <v>1.790787</v>
       </c>
       <c r="I20">
-        <v>0.004523899584163341</v>
+        <v>0.006236474763378514</v>
       </c>
       <c r="J20">
-        <v>0.003020487850686124</v>
+        <v>0.004166310873124553</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.989489</v>
+        <v>11.5773025</v>
       </c>
       <c r="N20">
-        <v>41.978978</v>
+        <v>23.154605</v>
       </c>
       <c r="O20">
-        <v>0.1600505690775031</v>
+        <v>0.0953207826158438</v>
       </c>
       <c r="P20">
-        <v>0.1127136753456305</v>
+        <v>0.06563257109105912</v>
       </c>
       <c r="Q20">
-        <v>17.7746444120595</v>
+        <v>10.36624140603375</v>
       </c>
       <c r="R20">
-        <v>71.09857764823799</v>
+        <v>41.464965624135</v>
       </c>
       <c r="S20">
-        <v>0.0007240527028948225</v>
+        <v>0.0005944656552091993</v>
       </c>
       <c r="T20">
-        <v>0.0003404502869876569</v>
+        <v>0.0002734456945677998</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.8468355</v>
+        <v>0.8953935</v>
       </c>
       <c r="H21">
-        <v>1.693671</v>
+        <v>1.790787</v>
       </c>
       <c r="I21">
-        <v>0.004523899584163341</v>
+        <v>0.006236474763378514</v>
       </c>
       <c r="J21">
-        <v>0.003020487850686124</v>
+        <v>0.004166310873124553</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.33994</v>
+        <v>0.3338006666666667</v>
       </c>
       <c r="N21">
-        <v>1.01982</v>
+        <v>1.001402</v>
       </c>
       <c r="O21">
-        <v>0.002592135065899242</v>
+        <v>0.00274832075816945</v>
       </c>
       <c r="P21">
-        <v>0.002738219601034138</v>
+        <v>0.002838510436940246</v>
       </c>
       <c r="Q21">
-        <v>0.28787325987</v>
+        <v>0.298882947229</v>
       </c>
       <c r="R21">
-        <v>1.72723955922</v>
+        <v>1.793297683374</v>
       </c>
       <c r="S21">
-        <v>1.172655874671679E-05</v>
+        <v>1.713983304999308E-05</v>
       </c>
       <c r="T21">
-        <v>8.270759037434218E-06</v>
+        <v>1.182611689690167E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>112.468651</v>
+        <v>60.259778</v>
       </c>
       <c r="H22">
-        <v>337.405953</v>
+        <v>180.779334</v>
       </c>
       <c r="I22">
-        <v>0.6008213915102898</v>
+        <v>0.4197133268711375</v>
       </c>
       <c r="J22">
-        <v>0.6017287783670343</v>
+        <v>0.4205876549698067</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.37432</v>
+        <v>13.00733333333333</v>
       </c>
       <c r="N22">
-        <v>40.12296000000001</v>
+        <v>39.022</v>
       </c>
       <c r="O22">
-        <v>0.1019828318366699</v>
+        <v>0.1070948256796854</v>
       </c>
       <c r="P22">
-        <v>0.1077302617359031</v>
+        <v>0.1106092800596386</v>
       </c>
       <c r="Q22">
-        <v>1504.19172844232</v>
+        <v>783.8190190386667</v>
       </c>
       <c r="R22">
-        <v>13537.72555598088</v>
+        <v>7054.371171348</v>
       </c>
       <c r="S22">
-        <v>0.06127346693426788</v>
+        <v>0.04494912557670527</v>
       </c>
       <c r="T22">
-        <v>0.06482439878750584</v>
+        <v>0.04652089771818201</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>112.468651</v>
+        <v>60.259778</v>
       </c>
       <c r="H23">
-        <v>337.405953</v>
+        <v>180.779334</v>
       </c>
       <c r="I23">
-        <v>0.6008213915102898</v>
+        <v>0.4197133268711375</v>
       </c>
       <c r="J23">
-        <v>0.6017287783670343</v>
+        <v>0.4205876549698067</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>288.71896</v>
       </c>
       <c r="O23">
-        <v>0.7338535627914345</v>
+        <v>0.7923813923330444</v>
       </c>
       <c r="P23">
-        <v>0.7752112289052886</v>
+        <v>0.8183844063648099</v>
       </c>
       <c r="Q23">
-        <v>10823.94398310766</v>
+        <v>5799.380144663628</v>
       </c>
       <c r="R23">
-        <v>97415.49584796889</v>
+        <v>52194.42130197265</v>
       </c>
       <c r="S23">
-        <v>0.4409149187611335</v>
+        <v>0.3325730303268861</v>
       </c>
       <c r="T23">
-        <v>0.4664669057455867</v>
+        <v>0.3442023783368328</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>112.468651</v>
+        <v>60.259778</v>
       </c>
       <c r="H24">
-        <v>337.405953</v>
+        <v>180.779334</v>
       </c>
       <c r="I24">
-        <v>0.6008213915102898</v>
+        <v>0.4197133268711375</v>
       </c>
       <c r="J24">
-        <v>0.6017287783670343</v>
+        <v>0.4205876549698067</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1994553333333333</v>
+        <v>0.298136</v>
       </c>
       <c r="N24">
-        <v>0.598366</v>
+        <v>0.8944080000000001</v>
       </c>
       <c r="O24">
-        <v>0.001520901228493132</v>
+        <v>0.002454678613257035</v>
       </c>
       <c r="P24">
-        <v>0.001606614412143705</v>
+        <v>0.002535232047552183</v>
       </c>
       <c r="Q24">
-        <v>22.43247227475533</v>
+        <v>17.965609173808</v>
       </c>
       <c r="R24">
-        <v>201.892250472798</v>
+        <v>161.690482564272</v>
       </c>
       <c r="S24">
-        <v>0.0009137899924529527</v>
+        <v>0.001030261327169541</v>
       </c>
       <c r="T24">
-        <v>0.0009667461275261024</v>
+        <v>0.001066287301684274</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>112.468651</v>
+        <v>60.259778</v>
       </c>
       <c r="H25">
-        <v>337.405953</v>
+        <v>180.779334</v>
       </c>
       <c r="I25">
-        <v>0.6008213915102898</v>
+        <v>0.4197133268711375</v>
       </c>
       <c r="J25">
-        <v>0.6017287783670343</v>
+        <v>0.4205876549698067</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.989489</v>
+        <v>11.5773025</v>
       </c>
       <c r="N25">
-        <v>41.978978</v>
+        <v>23.154605</v>
       </c>
       <c r="O25">
-        <v>0.1600505690775031</v>
+        <v>0.0953207826158438</v>
       </c>
       <c r="P25">
-        <v>0.1127136753456305</v>
+        <v>0.06563257109105912</v>
       </c>
       <c r="Q25">
-        <v>2360.659513009339</v>
+        <v>697.6456784888451</v>
       </c>
       <c r="R25">
-        <v>14163.95707805603</v>
+        <v>4185.87407093307</v>
       </c>
       <c r="S25">
-        <v>0.09616180562515921</v>
+        <v>0.04000740279165629</v>
       </c>
       <c r="T25">
-        <v>0.06782306217098473</v>
+        <v>0.02760424916482768</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>112.468651</v>
+        <v>60.259778</v>
       </c>
       <c r="H26">
-        <v>337.405953</v>
+        <v>180.779334</v>
       </c>
       <c r="I26">
-        <v>0.6008213915102898</v>
+        <v>0.4197133268711375</v>
       </c>
       <c r="J26">
-        <v>0.6017287783670343</v>
+        <v>0.4205876549698067</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.33994</v>
+        <v>0.3338006666666667</v>
       </c>
       <c r="N26">
-        <v>1.01982</v>
+        <v>1.001402</v>
       </c>
       <c r="O26">
-        <v>0.002592135065899242</v>
+        <v>0.00274832075816945</v>
       </c>
       <c r="P26">
-        <v>0.002738219601034138</v>
+        <v>0.002838510436940246</v>
       </c>
       <c r="Q26">
-        <v>38.23259322094</v>
+        <v>20.11475406958533</v>
       </c>
       <c r="R26">
-        <v>344.09333898846</v>
+        <v>181.032786626268</v>
       </c>
       <c r="S26">
-        <v>0.001557410197276199</v>
+        <v>0.001153506848720307</v>
       </c>
       <c r="T26">
-        <v>0.00164766553543094</v>
+        <v>0.001193842448280019</v>
       </c>
     </row>
   </sheetData>
